--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2431204.286677863</v>
+        <v>-2433201.959690708</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>56.43556171944101</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>130.6049775687658</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.87844664664844</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.5691721741686</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>161.1486436253827</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>165.8404403681495</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.9124227879787</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185877</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>39.11561436815781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0314030821034</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>127.4321567831326</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2488,10 +2488,10 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I25" t="n">
         <v>42.28735533463131</v>
@@ -2524,13 +2524,13 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T25" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329119</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789506</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415277</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.833184497836</v>
+        <v>544.1329001935451</v>
       </c>
       <c r="C2" t="n">
-        <v>1310.833184497836</v>
+        <v>544.1329001935451</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5674858910851</v>
+        <v>185.8672015867946</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4367,13 +4367,13 @@
         <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.433024561957</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,34 +4492,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4729,43 +4729,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334889</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2220.843019855343</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>1889.780132511772</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4984,25 +4984,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
         <v>1171.725741678162</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,22 +5264,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,64 +5501,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
         <v>1797.533454227377</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1124.545030325236</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141293</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247865</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6075,13 +6075,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6178,7 +6178,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
         <v>1304.027639859417</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,7 +6221,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,46 +6230,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6318,13 +6318,13 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6361,34 +6361,34 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D28" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E28" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6558,7 +6558,7 @@
         <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6637,10 +6637,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6835,28 +6835,28 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6914,10 +6914,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7029,13 +7029,13 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,16 +7251,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
         <v>1171.725741678162</v>
@@ -7269,7 +7269,7 @@
         <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>349.765300333856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,16 +9723,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>188.88569463024</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504494</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>274.3657496970643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338571</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>274.3657496970648</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7653003338571</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>349.7653003338569</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>251.325392503496</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
-        <v>125.133230616595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.08701998770493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871784</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>158.8051956154454</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.67825230693373</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>124.7054865406954</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>54505.51210371254</v>
@@ -26424,7 +26424,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26442,19 +26442,19 @@
         <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819121</v>
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="I5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="K5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="J5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789736.4101227806</v>
+        <v>-789949.8221126592</v>
       </c>
       <c r="C6" t="n">
         <v>-248491.9458499339</v>
       </c>
       <c r="D6" t="n">
-        <v>-248491.9458499339</v>
+        <v>-248491.9458499338</v>
       </c>
       <c r="E6" t="n">
-        <v>-639321.9700124835</v>
+        <v>-639419.4291384557</v>
       </c>
       <c r="F6" t="n">
-        <v>-114161.9335355873</v>
+        <v>-114259.3926615595</v>
       </c>
       <c r="G6" t="n">
-        <v>-114161.9335355873</v>
+        <v>-114259.3926615595</v>
       </c>
       <c r="H6" t="n">
-        <v>-114161.9335355874</v>
+        <v>-114259.3926615595</v>
       </c>
       <c r="I6" t="n">
         <v>-196814.0127519291</v>
@@ -26549,10 +26549,10 @@
         <v>-142308.5006482166</v>
       </c>
       <c r="L6" t="n">
-        <v>-142308.5006482166</v>
+        <v>-142308.5006482165</v>
       </c>
       <c r="M6" t="n">
-        <v>-277109.5158820539</v>
+        <v>-277109.5158820537</v>
       </c>
       <c r="N6" t="n">
         <v>-196814.0127519291</v>
@@ -26707,25 +26707,25 @@
         <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26929,7 +26929,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>326.2982799440396</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.3594920094051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>205.6226354013322</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.16466948931196</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.99689532463617</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.2331161620402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.575272440822033</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>270.6105755486123</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,13 +35495,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O18" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749643</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>499.3100716807064</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36598,7 +36598,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221117</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36771,7 +36771,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36926,10 +36926,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>481.459164628589</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686865</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37008,7 +37008,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749652</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>481.4591646285895</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>632.1290025749652</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
